--- a/xls-test.xlsx
+++ b/xls-test.xlsx
@@ -5,28 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aisha\Desktop\tawny-bubo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aisha\Desktop\tawny-bubo\dev-resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D746D9C9-BB00-4536-9B6C-057D02E598FD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB4A97D-BC97-425F-B396-D71B0131B18B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1770" yWindow="1770" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>A</t>
   </si>
@@ -55,32 +63,103 @@
     <t>B2</t>
   </si>
   <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>A22</t>
-  </si>
-  <si>
-    <t>r11</t>
-  </si>
-  <si>
-    <t>r22</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>B22</t>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>Z1</t>
+  </si>
+  <si>
+    <t>Z2</t>
+  </si>
+  <si>
+    <t>Genre</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>1 0 AM</t>
+  </si>
+  <si>
+    <t>Pop</t>
+  </si>
+  <si>
+    <t>www.10am.bandcamp.com/</t>
+  </si>
+  <si>
+    <t>Alice Ella</t>
+  </si>
+  <si>
+    <t>www.aliceella.co.uk</t>
+  </si>
+  <si>
+    <t>Alina Bzhezhinska</t>
+  </si>
+  <si>
+    <t>Jazz</t>
+  </si>
+  <si>
+    <t>www.alina-harpist.com</t>
+  </si>
+  <si>
+    <t>Alison Beattie</t>
+  </si>
+  <si>
+    <t>Classical</t>
+  </si>
+  <si>
+    <t>www.alisonbeattiemusic.com</t>
+  </si>
+  <si>
+    <t>www.alisonrayner.com</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>Y3</t>
+  </si>
+  <si>
+    <t>Alison Rayner</t>
+  </si>
+  <si>
+    <t>Artists/Group</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -106,8 +185,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,48 +517,169 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8708DBD-178D-4F0D-98E3-DC8CEA339F61}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96F145A-23CB-40F7-B53F-DAB598D14BE3}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25CB53E-4BEE-4E5A-9377-8190D172771C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/xls-test.xlsx
+++ b/xls-test.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aisha\Desktop\tawny-bubo\dev-resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aisha\Desktop\tawny-bubo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB4A97D-BC97-425F-B396-D71B0131B18B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA9FC17-F954-4DE7-AAC0-18D4D9CADACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="1770" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="64">
   <si>
     <t>A</t>
   </si>
@@ -139,6 +140,97 @@
   </si>
   <si>
     <t>Artists/Group</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>hasAuthor</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Ontology Learning and
+Population from Text</t>
+  </si>
+  <si>
+    <t>Philipp Cimiano</t>
+  </si>
+  <si>
+    <t>Manifest from the Heart</t>
+  </si>
+  <si>
+    <t>Henk J. M. Schram</t>
+  </si>
+  <si>
+    <t>Ontology for Information
+Systems (O4IS) Design
+Methodology</t>
+  </si>
+  <si>
+    <t>Vandana Kabilan</t>
+  </si>
+  <si>
+    <t>Jennifer D. Warrender</t>
+  </si>
+  <si>
+    <t>The Joy of Clojure</t>
+  </si>
+  <si>
+    <t>Chris Houser and Michael Fogus</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Springer</t>
+  </si>
+  <si>
+    <t>The Royal Institute of Technology</t>
+  </si>
+  <si>
+    <t>Newcastle University</t>
+  </si>
+  <si>
+    <t>Manning</t>
+  </si>
+  <si>
+    <t>The Consistent Representation of
+Scientific Knowledge</t>
+  </si>
+  <si>
+    <t>Crack Your Egg Enterprises</t>
+  </si>
+  <si>
+    <t>Book1-1</t>
+  </si>
+  <si>
+    <t>Book2-1</t>
+  </si>
+  <si>
+    <t>Book3-1</t>
+  </si>
+  <si>
+    <t>Book4-1</t>
+  </si>
+  <si>
+    <t>Book5-1</t>
+  </si>
+  <si>
+    <t>Book6-1</t>
+  </si>
+  <si>
+    <t>Handbook on Ontologies</t>
+  </si>
+  <si>
+    <t>Steffen Staab and Rudi Studer</t>
   </si>
 </sst>
 </file>
@@ -185,15 +277,76 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="16">
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -204,6 +357,46 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E625CB30-D30B-472A-950A-891D3BF77CEB}" name="Table4" displayName="Table4" ref="E1:I7" totalsRowShown="0" dataDxfId="15">
+  <autoFilter ref="E1:I7" xr:uid="{381CA2A1-F543-4FBB-B0ED-9F8E31C72023}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{C2BFC0B1-3EB6-41C1-8A39-B6999BC15EE6}" name="Book" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{AE7CEDAF-EAEB-4596-B1DC-6DC2ADF584E5}" name="Title" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{2C11274C-8A21-4A22-A0BC-6D373BA6BDFE}" name="Author" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{48C56D00-AE50-4012-A59F-576F507BFE99}" name="Publisher" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{E526DFF1-0248-48E0-A8A8-5210E4D5B268}" name="Year" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{384F9308-F1AE-4114-86D0-2F6CE0085779}" name="Table3" displayName="Table3" ref="A1:C7" totalsRowShown="0" dataDxfId="9">
+  <autoFilter ref="A1:C7" xr:uid="{89641271-9C4A-4063-AC6E-79CF236E661C}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{D6B44D8D-38B0-4F35-B0B0-42FF2D54A2C6}" name="Book" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{E00D983A-2813-4A5C-A8A7-07639708309C}" name="hasAuthor" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{E865285E-6236-4167-88E2-D22434E9F2BF}" name="Author" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E68F4010-A6AE-4BC5-9BB9-E91AE3943F73}" name="Table42" displayName="Table42" ref="A1:E7" totalsRowShown="0" dataDxfId="5">
+  <autoFilter ref="A1:E7" xr:uid="{05365A1D-DE97-4314-80A9-C7ADBD08F939}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{690F849D-8B3E-4E99-91C8-567BAFB309F4}" name="Book" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{F77D7698-A47C-450F-B376-C3D554B37EFE}" name="Title" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{2EC68711-D5C2-4F55-BBBD-5E89CFD32FFB}" name="Author" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{E988639C-A6EB-42EC-A652-3CA32314173C}" name="Publisher" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{F71580F4-B08F-4E3F-93DB-CEE6EB98B6A5}" name="Year" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -511,6 +704,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -590,7 +784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96F145A-23CB-40F7-B53F-DAB598D14BE3}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -672,14 +866,355 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25CB53E-4BEE-4E5A-9377-8190D172771C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="5">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="5">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="5">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="5">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="5">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="5">
+        <v>2017</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB04A49-BF82-4F4F-8D6D-DEE79DB82043}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2017</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>